--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>892553.2332659166</v>
+        <v>868235.1404772035</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564194</v>
+        <v>189902.9539564199</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>113.7920734793212</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.889762398448</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755627</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +835,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>342.6848008035823</v>
+        <v>302.7512766680231</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.889762398448</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755627</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>126.995733234708</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>130.1024780662195</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.10844059186244</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,10 +1309,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>34.45403149117919</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>86.13065206326425</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>93.48944721115208</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -1582,7 +1582,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>203.8041879340259</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3197306044665</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>9.461970681989245</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>403.2930603830745</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3567277916629</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,16 +2090,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>321.7064610691125</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.601046899543975</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.7498680634313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,19 +2321,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>376.184863643924</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>164.878325216851</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,22 +2363,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,22 +2482,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>292.9415311655808</v>
       </c>
       <c r="I26" t="n">
-        <v>151.2654212835669</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.08346683966627</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>201.0891638436803</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2810,7 +2810,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>117.0193754796568</v>
+        <v>99.38410307800817</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2992,25 +2992,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>168.175509326291</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>245.9555222332798</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>11.39108932486054</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>64.28775303405013</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>94.6392697836404</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>168.7756050755992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3269,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>317.8780976788429</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>383.9078668656364</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>15.51599806121317</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.0555388225931</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>209.0927030614782</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>22.02087812852605</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,16 +3661,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.49439899867237</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3703,25 +3703,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.1332020905459</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,16 +3743,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>179.1388077377615</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>23.02457248166905</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>162.5776147681366</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>117.5258999766333</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.4163976816305</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8100533453328</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>223.1498336210767</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1794.737189801198</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C2" t="n">
-        <v>1425.774672860786</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D2" t="n">
-        <v>1067.508974254036</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E2" t="n">
-        <v>1067.508974254036</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.202948062278</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.737189801198</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y2" t="n">
-        <v>1794.737189801198</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,13 +4437,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
@@ -4486,7 +4486,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C5" t="n">
-        <v>880.7499412272339</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D5" t="n">
-        <v>880.7499412272339</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E5" t="n">
-        <v>880.7499412272339</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="F5" t="n">
-        <v>880.7499412272339</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4601,16 +4601,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674651</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404537</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143457</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598705</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4674,13 +4674,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064341</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064341</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064341</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816298</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837194</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064341</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064341</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064341</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064341</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064341</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.4089578252748</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2513.841883129819</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2295.207216101881</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U8" t="n">
-        <v>2041.445430739973</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V8" t="n">
-        <v>1710.382543396402</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W8" t="n">
-        <v>1357.613888126288</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X8" t="n">
-        <v>984.1481298652084</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y8" t="n">
-        <v>594.0087978893966</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,7 +4902,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E10" t="n">
-        <v>527.5811021474123</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>551.8221175621458</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>382.8223173004782</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>225.0739447330083</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>88.74503383165657</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2048.575150942547</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C11" t="n">
-        <v>2048.575150942547</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.309452335796</v>
+        <v>1264.912517821975</v>
       </c>
       <c r="E11" t="n">
-        <v>1304.521199737552</v>
+        <v>879.1242652237311</v>
       </c>
       <c r="F11" t="n">
-        <v>893.5352949479445</v>
+        <v>468.1383604341235</v>
       </c>
       <c r="G11" t="n">
-        <v>475.5714868461314</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>148.3767668821342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5066,25 +5066,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W11" t="n">
-        <v>2048.575150942547</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X11" t="n">
-        <v>2048.575150942547</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.575150942547</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5121,19 +5121,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.81559303506</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
         <v>2568.06040664989</v>
@@ -5157,10 +5157,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5206,19 +5206,19 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
         <v>550.5654064942401</v>
@@ -5230,19 +5230,19 @@
         <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2476.569858826099</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
@@ -5276,19 +5276,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2041.445430739973</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>1710.382543396402</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1357.613888126288</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>984.1481298652084</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>594.0087978893966</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5355,43 +5355,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5455,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.9054987607761</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C17" t="n">
-        <v>53.94298182036445</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036445</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>1199.49033423364</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>788.5044294440329</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5513,13 +5513,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5543,22 +5543,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1925.879084331904</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1573.11042906179</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X17" t="n">
-        <v>1199.64467080071</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y17" t="n">
-        <v>809.505338824898</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5701,22 +5701,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2476.569858826099</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C20" t="n">
-        <v>2107.607341885688</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D20" t="n">
-        <v>1749.341643278937</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E20" t="n">
-        <v>1363.553390680693</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224079</v>
@@ -5768,34 +5768,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>2697.149091018222</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2342.015910972395</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C22" t="n">
-        <v>2173.079728044489</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018222</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y22" t="n">
-        <v>2523.664375802635</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>589.4492616060802</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>220.4867446656685</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>220.4867446656685</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E23" t="n">
-        <v>220.4867446656685</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F23" t="n">
-        <v>220.4867446656685</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>220.4867446656685</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5990,10 +5990,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1739.654191907093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1366.188433646014</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>976.0491016702019</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2697.149091018222</v>
+        <v>104.883908862959</v>
       </c>
       <c r="C25" t="n">
-        <v>2697.149091018222</v>
+        <v>104.883908862959</v>
       </c>
       <c r="D25" t="n">
-        <v>2697.149091018222</v>
+        <v>104.883908862959</v>
       </c>
       <c r="E25" t="n">
-        <v>2678.586644293418</v>
+        <v>104.883908862959</v>
       </c>
       <c r="F25" t="n">
-        <v>2531.696696795508</v>
+        <v>104.883908862959</v>
       </c>
       <c r="G25" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y25" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1313.879478346267</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C26" t="n">
-        <v>944.9169614058549</v>
+        <v>1564.581483840919</v>
       </c>
       <c r="D26" t="n">
-        <v>944.9169614058549</v>
+        <v>1564.581483840919</v>
       </c>
       <c r="E26" t="n">
-        <v>944.9169614058549</v>
+        <v>1178.793231242675</v>
       </c>
       <c r="F26" t="n">
-        <v>533.9310566162474</v>
+        <v>767.8073264530674</v>
       </c>
       <c r="G26" t="n">
-        <v>533.9310566162474</v>
+        <v>349.8435183512543</v>
       </c>
       <c r="H26" t="n">
-        <v>206.7363366522502</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2090.6186503862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>2090.6186503862</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1700.479318410388</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.8791647482714</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>693.7012399239431</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>693.7012399239431</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>693.7012399239431</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>404.5276295785111</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>404.5276295785111</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W28" t="n">
-        <v>404.5276295785111</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X28" t="n">
-        <v>404.5276295785111</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="Y28" t="n">
-        <v>404.5276295785111</v>
+        <v>2204.611553462393</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1697.251320989585</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C29" t="n">
-        <v>1328.288804049173</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="D29" t="n">
-        <v>1328.288804049173</v>
+        <v>899.4894927932537</v>
       </c>
       <c r="E29" t="n">
-        <v>1328.288804049173</v>
+        <v>899.4894927932537</v>
       </c>
       <c r="F29" t="n">
-        <v>917.3028992595655</v>
+        <v>899.4894927932537</v>
       </c>
       <c r="G29" t="n">
-        <v>499.3390911577524</v>
+        <v>481.5256846914406</v>
       </c>
       <c r="H29" t="n">
-        <v>172.1443711937552</v>
+        <v>154.3309647274434</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2423.485734520779</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>2070.717079250664</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X29" t="n">
-        <v>1697.251320989585</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y29" t="n">
-        <v>1697.251320989585</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C31" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D31" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E31" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F31" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6628,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>380.6911546495019</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="V31" t="n">
-        <v>380.6911546495019</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W31" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X31" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y31" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>864.038634162993</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C32" t="n">
-        <v>864.038634162993</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D32" t="n">
-        <v>864.038634162993</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E32" t="n">
-        <v>864.038634162993</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F32" t="n">
-        <v>864.038634162993</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G32" t="n">
-        <v>446.0748260611799</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>118.8801060971828</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6734,16 +6734,16 @@
         <v>1993.546461473041</v>
       </c>
       <c r="V32" t="n">
-        <v>1993.546461473041</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>1640.777806202927</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>1640.777806202927</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y32" t="n">
-        <v>1250.638474227115</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614632</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6822,7 +6822,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6883,22 +6883,22 @@
         <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>513.840561024597</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V34" t="n">
-        <v>513.840561024597</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W34" t="n">
-        <v>224.4233909876364</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>224.4233909876364</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
         <v>53.94298182036446</v>
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1702.337823625995</v>
+        <v>1520.223993023727</v>
       </c>
       <c r="C35" t="n">
-        <v>1333.375306685583</v>
+        <v>1151.261476083315</v>
       </c>
       <c r="D35" t="n">
-        <v>1333.375306685583</v>
+        <v>792.9957774765644</v>
       </c>
       <c r="E35" t="n">
-        <v>1333.375306685583</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
-        <v>922.3894018959754</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U35" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2465.942913862886</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2465.942913862886</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X35" t="n">
-        <v>2092.477155601806</v>
+        <v>1520.223993023727</v>
       </c>
       <c r="Y35" t="n">
-        <v>1702.337823625995</v>
+        <v>1520.223993023727</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7014,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>391.878965009939</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="C37" t="n">
-        <v>222.942782082032</v>
+        <v>2499.827900873626</v>
       </c>
       <c r="D37" t="n">
-        <v>222.942782082032</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="E37" t="n">
-        <v>222.942782082032</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>573.5274298401787</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>573.5274298401787</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>573.5274298401787</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V37" t="n">
-        <v>573.5274298401787</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W37" t="n">
-        <v>573.5274298401787</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X37" t="n">
-        <v>573.5274298401787</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y37" t="n">
-        <v>573.5274298401787</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1061.921889775366</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C38" t="n">
-        <v>1061.921889775366</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D38" t="n">
-        <v>1061.921889775366</v>
+        <v>494.150101163113</v>
       </c>
       <c r="E38" t="n">
-        <v>676.1336371771217</v>
+        <v>494.150101163113</v>
       </c>
       <c r="F38" t="n">
-        <v>265.1477323875142</v>
+        <v>494.150101163113</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>76.18629306129986</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>76.18629306129986</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V38" t="n">
-        <v>1838.661061815299</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W38" t="n">
-        <v>1838.661061815299</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X38" t="n">
-        <v>1838.661061815299</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y38" t="n">
-        <v>1448.521729839488</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>438.9553738610023</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>270.0191909330954</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>270.0191909330954</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610023</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610023</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>438.9553738610023</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>438.9553738610023</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.9553738610023</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>781.1711973675267</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>412.208680427115</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036446</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036446</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7409,19 +7409,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7439,22 +7439,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2516.200800374019</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2262.439015012111</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>1557.91036940746</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1167.771037431648</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036446</v>
@@ -7497,13 +7497,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>246.1363086691492</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>77.20012574124229</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
         <v>53.94298182036446</v>
@@ -7597,22 +7597,22 @@
         <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750361</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V43" t="n">
-        <v>246.1363086691492</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W43" t="n">
-        <v>246.1363086691492</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="X43" t="n">
-        <v>246.1363086691492</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y43" t="n">
-        <v>246.1363086691492</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1177.911859172214</v>
+        <v>1053.350203651865</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.911859172214</v>
+        <v>684.3876867114529</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.911859172214</v>
+        <v>326.1219881047024</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1236065739693</v>
+        <v>326.1219881047024</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036446</v>
@@ -7649,49 +7649,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2307.419686482261</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2307.419686482261</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2307.419686482261</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W44" t="n">
-        <v>1954.651031212147</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X44" t="n">
-        <v>1954.651031212147</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y44" t="n">
-        <v>1564.511699236335</v>
+        <v>1053.350203651865</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507.3364050629042</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>351.9727148150933</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>201.8560754027576</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>2471.745218673701</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064343</v>
+        <v>2471.745218673701</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064343</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.3364050629042</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9243,7 +9243,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119844</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>422.2865794093296</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>293.0839722623902</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22677,7 +22677,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890129</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,7 +22796,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>71.09936921721271</v>
+        <v>111.0328933527719</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22841,13 +22841,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22914,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22948,19 +22948,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890129</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23021,7 +23021,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23039,7 +23039,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,10 +23069,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>47.41997957426355</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>86.34584229143829</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23182,10 +23182,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.50703242634992</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23197,10 +23197,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>10.74592769735781</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>327.6535179575308</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>58.44186903370917</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,10 +23434,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>47.41997957426344</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>11.99007165458445</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>242.6756726418388</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>10.49110963772046</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23783,19 +23783,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>31.86743971662639</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23941,16 +23941,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,16 +23978,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>85.16958467259889</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24169,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>216.4340585585403</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.83478528866354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24209,19 +24209,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>159.0444475475062</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,22 +24251,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,22 +24370,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>116.8782844868823</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,19 +24449,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>30.98124159877631</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6658949612943559</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,16 +24497,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,7 +24646,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>112.5817251404916</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,16 +24655,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>24.62049154535686</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.91194076520441</v>
+        <v>52.54721316685308</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24880,25 +24880,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>56.85959613179327</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>40.32635200869791</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>371.34275233862</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>87.64356321081112</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,13 +24974,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25123,16 +25123,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.80904827649556</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25157,22 +25157,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>64.05227239341889</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>29.87630315515855</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,19 +25199,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>151.7308230374147</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25360,7 +25360,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>59.09000012742584</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25391,25 +25391,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>204.6914669593168</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>129.9104381163352</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>77.9395636478968</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25591,25 +25591,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>7.012336859473038</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25679,13 +25679,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>37.30951261989628</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25786,10 +25786,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>125.5909005365433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25837,22 +25837,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>63.13204062090051</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>289.3501457650781</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>5.03192267602725</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>13.43676775329507</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26080,13 +26080,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>28.98780970275132</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>767171.0727159031</v>
+        <v>767171.0727159032</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>767171.0727159032</v>
+        <v>767171.0727159031</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>767171.0727159031</v>
+        <v>767171.0727159032</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>767171.0727159029</v>
+        <v>767171.0727159032</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>767171.0727159032</v>
+        <v>767171.0727159031</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>767171.0727159032</v>
+        <v>767171.0727159031</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>767171.0727159029</v>
+        <v>767171.0727159031</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>767171.0727159031</v>
+        <v>767171.0727159032</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>767171.0727159031</v>
+        <v>767171.0727159032</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="D2" t="n">
         <v>289152.6100157575</v>
       </c>
       <c r="E2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="F2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="G2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="H2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="I2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="J2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="J2" t="n">
-        <v>289152.6100157573</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="L2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="N2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="O2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="P2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289152.6100157576</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="C4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="D4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="F4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="G4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="I4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="J4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
-        <v>41896.11844317795</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
-        <v>41896.11844317795</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
     </row>
     <row r="5">
@@ -26485,16 +26485,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-425570.4657053743</v>
+        <v>-428477.0034377648</v>
       </c>
       <c r="C6" t="n">
-        <v>164397.4135091701</v>
+        <v>161490.8757767793</v>
       </c>
       <c r="D6" t="n">
-        <v>164397.4135091701</v>
+        <v>161490.8757767794</v>
       </c>
       <c r="E6" t="n">
-        <v>198025.01350917</v>
+        <v>195118.4757767795</v>
       </c>
       <c r="F6" t="n">
-        <v>198025.0135091702</v>
+        <v>195118.4757767795</v>
       </c>
       <c r="G6" t="n">
-        <v>198025.0135091702</v>
+        <v>195118.4757767796</v>
       </c>
       <c r="H6" t="n">
-        <v>198025.01350917</v>
+        <v>195118.4757767795</v>
       </c>
       <c r="I6" t="n">
-        <v>198025.01350917</v>
+        <v>195118.4757767796</v>
       </c>
       <c r="J6" t="n">
-        <v>21601.79431657696</v>
+        <v>18695.25658418641</v>
       </c>
       <c r="K6" t="n">
-        <v>198025.01350917</v>
+        <v>195118.4757767794</v>
       </c>
       <c r="L6" t="n">
-        <v>198025.01350917</v>
+        <v>195118.4757767795</v>
       </c>
       <c r="M6" t="n">
-        <v>198025.0135091701</v>
+        <v>195118.4757767796</v>
       </c>
       <c r="N6" t="n">
-        <v>198025.0135091701</v>
+        <v>195118.4757767795</v>
       </c>
       <c r="O6" t="n">
-        <v>198025.01350917</v>
+        <v>195118.4757767795</v>
       </c>
       <c r="P6" t="n">
-        <v>198025.0135091701</v>
+        <v>195118.4757767793</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26805,16 +26805,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,16 +31039,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
         <v>193.1674799081577</v>
@@ -31060,25 +31060,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,31 +31118,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,16 +31276,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31297,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
         <v>193.1674799081577</v>
@@ -31771,25 +31771,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479577</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35422,13 +35422,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
         <v>148.370846145888</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35890,7 +35890,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,7 +36446,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37315,7 +37315,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37391,7 +37391,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>486.0228424856235</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N36" t="n">
         <v>559.3197334338902</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37628,7 +37628,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37795,7 +37795,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116803</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37865,7 +37865,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
@@ -37874,7 +37874,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,7 +38102,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
